--- a/example.xlsx
+++ b/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD383D7A-BCD6-43FD-88F6-0EB841CA27ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECCE6C4D-FD50-4726-A8A3-2EDF462BFA7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>[A,1,0,5]</t>
-  </si>
-  <si>
-    <t>[B,1,1,4]</t>
-  </si>
-  <si>
-    <t>[C,0,5,3]</t>
-  </si>
-  <si>
-    <t>[D,0,6,1]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -44,13 +32,25 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A,1,0,6</t>
+  </si>
+  <si>
+    <t>B,1,1,5</t>
+  </si>
+  <si>
+    <t>C,0,5,2</t>
+  </si>
+  <si>
+    <t>D,0,10,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +66,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +93,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,55 +122,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bevitel" xfId="1" builtinId="20"/>
+    <cellStyle name="Jó" xfId="2" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,105 +423,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="12" width="5.85546875" customWidth="1"/>
+    <col min="2" max="29" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="5">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="4"/>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -542,9 +577,9 @@
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
